--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H2">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I2">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J2">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1448673333333333</v>
+        <v>0.111675</v>
       </c>
       <c r="N2">
-        <v>0.434602</v>
+        <v>0.335025</v>
       </c>
       <c r="O2">
-        <v>0.03218399861311745</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P2">
-        <v>0.03218399861311746</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q2">
-        <v>53.90637199693821</v>
+        <v>47.09365557409999</v>
       </c>
       <c r="R2">
-        <v>485.1573479724439</v>
+        <v>423.8429001668999</v>
       </c>
       <c r="S2">
-        <v>0.02605374228208942</v>
+        <v>0.0227791967572981</v>
       </c>
       <c r="T2">
-        <v>0.02605374228208943</v>
+        <v>0.0227791967572981</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H3">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I3">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J3">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.759566</v>
       </c>
       <c r="O3">
-        <v>0.5005726222366118</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P3">
-        <v>0.5005726222366118</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q3">
-        <v>838.4307466000058</v>
+        <v>950.1758765298016</v>
       </c>
       <c r="R3">
-        <v>7545.876719400051</v>
+        <v>8551.582888768215</v>
       </c>
       <c r="S3">
-        <v>0.4052259089989786</v>
+        <v>0.4595999818161108</v>
       </c>
       <c r="T3">
-        <v>0.4052259089989786</v>
+        <v>0.4595999818161108</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H4">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I4">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J4">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.002935666666666666</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N4">
-        <v>0.008806999999999999</v>
+        <v>0.046774</v>
       </c>
       <c r="O4">
-        <v>0.0006521932153688326</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P4">
-        <v>0.0006521932153688327</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q4">
-        <v>1.092386639217111</v>
+        <v>6.574908277958222</v>
       </c>
       <c r="R4">
-        <v>9.831479752953998</v>
+        <v>59.174174501624</v>
       </c>
       <c r="S4">
-        <v>0.0005279665263352711</v>
+        <v>0.003180282513620958</v>
       </c>
       <c r="T4">
-        <v>0.0005279665263352712</v>
+        <v>0.003180282513620958</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H5">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I5">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J5">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,43 +744,43 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.096925333333333</v>
+        <v>1.654403</v>
       </c>
       <c r="N5">
-        <v>6.290775999999999</v>
+        <v>4.963209</v>
       </c>
       <c r="O5">
-        <v>0.4658568668791965</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P5">
-        <v>0.4658568668791965</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q5">
-        <v>780.28382567363</v>
+        <v>697.6663090464093</v>
       </c>
       <c r="R5">
-        <v>7022.55443106267</v>
+        <v>6278.996781417683</v>
       </c>
       <c r="S5">
-        <v>0.3771226470618022</v>
+        <v>0.3374611278519298</v>
       </c>
       <c r="T5">
-        <v>0.3771226470618022</v>
+        <v>0.3374611278519298</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>372.1085406666666</v>
+        <v>69.70494733333334</v>
       </c>
       <c r="H6">
-        <v>1116.325622</v>
+        <v>209.114842</v>
       </c>
       <c r="I6">
-        <v>0.8095247142929753</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J6">
-        <v>0.8095247142929753</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.003305333333333333</v>
+        <v>0.111675</v>
       </c>
       <c r="N6">
-        <v>0.009915999999999999</v>
+        <v>0.335025</v>
       </c>
       <c r="O6">
-        <v>0.0007343190557053872</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P6">
-        <v>0.0007343190557053872</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q6">
-        <v>1.229942763083555</v>
+        <v>7.784299993449999</v>
       </c>
       <c r="R6">
-        <v>11.069484867752</v>
+        <v>70.05869994104999</v>
       </c>
       <c r="S6">
-        <v>0.000594449423769791</v>
+        <v>0.003765265172282618</v>
       </c>
       <c r="T6">
-        <v>0.000594449423769791</v>
+        <v>0.003765265172282618</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>209.114842</v>
       </c>
       <c r="I7">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J7">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1448673333333333</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N7">
-        <v>0.434602</v>
+        <v>6.759566</v>
       </c>
       <c r="O7">
-        <v>0.03218399861311745</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P7">
-        <v>0.03218399861311746</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q7">
-        <v>10.09796984032044</v>
+        <v>157.0583973420636</v>
       </c>
       <c r="R7">
-        <v>90.88172856288401</v>
+        <v>1413.525576078572</v>
       </c>
       <c r="S7">
-        <v>0.004880497314992067</v>
+        <v>0.0759691319738698</v>
       </c>
       <c r="T7">
-        <v>0.004880497314992068</v>
+        <v>0.0759691319738698</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>209.114842</v>
       </c>
       <c r="I8">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J8">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.253188666666667</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N8">
-        <v>6.759566</v>
+        <v>0.046774</v>
       </c>
       <c r="O8">
-        <v>0.5005726222366118</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P8">
-        <v>0.5005726222366118</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q8">
-        <v>157.0583973420636</v>
+        <v>1.086793068856444</v>
       </c>
       <c r="R8">
-        <v>1413.525576078572</v>
+        <v>9.781137619708002</v>
       </c>
       <c r="S8">
-        <v>0.07590863298721975</v>
+        <v>0.0005256817048529131</v>
       </c>
       <c r="T8">
-        <v>0.07590863298721975</v>
+        <v>0.0005256817048529131</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>209.114842</v>
       </c>
       <c r="I9">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J9">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.002935666666666666</v>
+        <v>1.654403</v>
       </c>
       <c r="N9">
-        <v>0.008806999999999999</v>
+        <v>4.963209</v>
       </c>
       <c r="O9">
-        <v>0.0006521932153688326</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P9">
-        <v>0.0006521932153688327</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q9">
-        <v>0.2046304903882222</v>
+        <v>115.3200739831087</v>
       </c>
       <c r="R9">
-        <v>1.841674413494</v>
+        <v>1037.880665847978</v>
       </c>
       <c r="S9">
-        <v>9.890092510650005E-05</v>
+        <v>0.05578030890369269</v>
       </c>
       <c r="T9">
-        <v>9.890092510650006E-05</v>
+        <v>0.05578030890369269</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>69.70494733333334</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H10">
-        <v>209.114842</v>
+        <v>3.264479</v>
       </c>
       <c r="I10">
-        <v>0.1516435969830949</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J10">
-        <v>0.1516435969830949</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,43 +1054,43 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.096925333333333</v>
+        <v>0.111675</v>
       </c>
       <c r="N10">
-        <v>6.290775999999999</v>
+        <v>0.335025</v>
       </c>
       <c r="O10">
-        <v>0.4658568668791965</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P10">
-        <v>0.4658568668791965</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q10">
-        <v>146.1660699219324</v>
+        <v>0.121520230775</v>
       </c>
       <c r="R10">
-        <v>1315.494629297392</v>
+        <v>1.093682076975</v>
       </c>
       <c r="S10">
-        <v>0.07064421097283616</v>
+        <v>5.877932415886572E-05</v>
       </c>
       <c r="T10">
-        <v>0.07064421097283616</v>
+        <v>5.877932415886572E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>69.70494733333334</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H11">
-        <v>209.114842</v>
+        <v>3.264479</v>
       </c>
       <c r="I11">
-        <v>0.1516435969830949</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J11">
-        <v>0.1516435969830949</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.003305333333333333</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N11">
-        <v>0.009915999999999999</v>
+        <v>6.759566</v>
       </c>
       <c r="O11">
-        <v>0.0007343190557053872</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P11">
-        <v>0.0007343190557053872</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q11">
-        <v>0.2303980859191111</v>
+        <v>2.451829028457111</v>
       </c>
       <c r="R11">
-        <v>2.073582773272</v>
+        <v>22.066461256114</v>
       </c>
       <c r="S11">
-        <v>0.0001113547829403945</v>
+        <v>0.001185949469702999</v>
       </c>
       <c r="T11">
-        <v>0.0001113547829403945</v>
+        <v>0.001185949469702999</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H12">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I12">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J12">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1448673333333333</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N12">
-        <v>0.434602</v>
+        <v>0.046774</v>
       </c>
       <c r="O12">
-        <v>0.03218399861311745</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P12">
-        <v>0.03218399861311746</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q12">
-        <v>0.05611523077066666</v>
+        <v>0.01696586008288889</v>
       </c>
       <c r="R12">
-        <v>0.505037076936</v>
+        <v>0.152692740746</v>
       </c>
       <c r="S12">
-        <v>2.712131620881411E-05</v>
+        <v>8.206384921145543E-06</v>
       </c>
       <c r="T12">
-        <v>2.712131620881411E-05</v>
+        <v>8.206384921145543E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H13">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I13">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J13">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.253188666666667</v>
+        <v>1.654403</v>
       </c>
       <c r="N13">
-        <v>6.759566</v>
+        <v>4.963209</v>
       </c>
       <c r="O13">
-        <v>0.5005726222366118</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P13">
-        <v>0.5005726222366118</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q13">
-        <v>0.8727861491653334</v>
+        <v>1.800254617012333</v>
       </c>
       <c r="R13">
-        <v>7.855075342488</v>
+        <v>16.202291553111</v>
       </c>
       <c r="S13">
-        <v>0.000421830380256761</v>
+        <v>0.0008707829883716136</v>
       </c>
       <c r="T13">
-        <v>0.000421830380256761</v>
+        <v>0.0008707829883716136</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.387356</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H14">
-        <v>1.162068</v>
+        <v>58.310951</v>
       </c>
       <c r="I14">
-        <v>0.0008426956679571844</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J14">
-        <v>0.0008426956679571844</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.002935666666666666</v>
+        <v>0.111675</v>
       </c>
       <c r="N14">
-        <v>0.008806999999999999</v>
+        <v>0.335025</v>
       </c>
       <c r="O14">
-        <v>0.0006521932153688326</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P14">
-        <v>0.0006521932153688327</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q14">
-        <v>0.001137148097333333</v>
+        <v>2.170625150974999</v>
       </c>
       <c r="R14">
-        <v>0.010234332876</v>
+        <v>19.535626358775</v>
       </c>
       <c r="S14">
-        <v>5.496003972623823E-07</v>
+        <v>0.001049931180700116</v>
       </c>
       <c r="T14">
-        <v>5.496003972623823E-07</v>
+        <v>0.001049931180700116</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.387356</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H15">
-        <v>1.162068</v>
+        <v>58.310951</v>
       </c>
       <c r="I15">
-        <v>0.0008426956679571844</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J15">
-        <v>0.0008426956679571844</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,43 +1364,43 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.096925333333333</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N15">
-        <v>6.290775999999999</v>
+        <v>6.759566</v>
       </c>
       <c r="O15">
-        <v>0.4658568668791965</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P15">
-        <v>0.4658568668791965</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q15">
-        <v>0.8122566094186665</v>
+        <v>43.79519131191844</v>
       </c>
       <c r="R15">
-        <v>7.310309484767998</v>
+        <v>394.156721807266</v>
       </c>
       <c r="S15">
-        <v>0.0003925755636072057</v>
+        <v>0.02118372990493355</v>
       </c>
       <c r="T15">
-        <v>0.0003925755636072057</v>
+        <v>0.02118372990493355</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.387356</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H16">
-        <v>1.162068</v>
+        <v>58.310951</v>
       </c>
       <c r="I16">
-        <v>0.0008426956679571844</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J16">
-        <v>0.0008426956679571844</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.003305333333333333</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N16">
-        <v>0.009915999999999999</v>
+        <v>0.046774</v>
       </c>
       <c r="O16">
-        <v>0.0007343190557053872</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P16">
-        <v>0.0007343190557053872</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q16">
-        <v>0.001280340698666667</v>
+        <v>0.3030484913415555</v>
       </c>
       <c r="R16">
-        <v>0.011523066288</v>
+        <v>2.727436422074</v>
       </c>
       <c r="S16">
-        <v>6.188074871413402E-07</v>
+        <v>0.000146584526665375</v>
       </c>
       <c r="T16">
-        <v>6.188074871413402E-07</v>
+        <v>0.000146584526665375</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.03711166666666</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H17">
-        <v>51.111335</v>
+        <v>58.310951</v>
       </c>
       <c r="I17">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J17">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1448673333333333</v>
+        <v>1.654403</v>
       </c>
       <c r="N17">
-        <v>0.434602</v>
+        <v>4.963209</v>
       </c>
       <c r="O17">
-        <v>0.03218399861311745</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P17">
-        <v>0.03218399861311746</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q17">
-        <v>2.468120934852222</v>
+        <v>32.15660408908433</v>
       </c>
       <c r="R17">
-        <v>22.21308841367</v>
+        <v>289.409436801759</v>
       </c>
       <c r="S17">
-        <v>0.001192879141659204</v>
+        <v>0.01555414636349957</v>
       </c>
       <c r="T17">
-        <v>0.001192879141659204</v>
+        <v>0.01555414636349957</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.03711166666666</v>
+        <v>0.451366</v>
       </c>
       <c r="H18">
-        <v>51.111335</v>
+        <v>1.354098</v>
       </c>
       <c r="I18">
-        <v>0.03706435474344739</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J18">
-        <v>0.03706435474344739</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.253188666666667</v>
+        <v>0.111675</v>
       </c>
       <c r="N18">
-        <v>6.759566</v>
+        <v>0.335025</v>
       </c>
       <c r="O18">
-        <v>0.5005726222366118</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P18">
-        <v>0.5005726222366118</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q18">
-        <v>38.38782692006778</v>
+        <v>0.05040629804999999</v>
       </c>
       <c r="R18">
-        <v>345.49044228061</v>
+        <v>0.45365668245</v>
       </c>
       <c r="S18">
-        <v>0.01855340124543546</v>
+        <v>2.438152161030037E-05</v>
       </c>
       <c r="T18">
-        <v>0.01855340124543546</v>
+        <v>2.438152161030037E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.03711166666666</v>
+        <v>0.451366</v>
       </c>
       <c r="H19">
-        <v>51.111335</v>
+        <v>1.354098</v>
       </c>
       <c r="I19">
-        <v>0.03706435474344739</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J19">
-        <v>0.03706435474344739</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.002935666666666666</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N19">
-        <v>0.008806999999999999</v>
+        <v>6.759566</v>
       </c>
       <c r="O19">
-        <v>0.0006521932153688326</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P19">
-        <v>0.0006521932153688327</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q19">
-        <v>0.0500152808161111</v>
+        <v>1.017012755718667</v>
       </c>
       <c r="R19">
-        <v>0.4501375273449999</v>
+        <v>9.153114801468</v>
       </c>
       <c r="S19">
-        <v>2.417312069569999E-05</v>
+        <v>0.0004919289739728428</v>
       </c>
       <c r="T19">
-        <v>2.41731206957E-05</v>
+        <v>0.0004919289739728428</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,61 +1656,61 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.03711166666666</v>
+        <v>0.451366</v>
       </c>
       <c r="H20">
-        <v>51.111335</v>
+        <v>1.354098</v>
       </c>
       <c r="I20">
-        <v>0.03706435474344739</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J20">
-        <v>0.03706435474344739</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>2.096925333333333</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N20">
-        <v>6.290775999999999</v>
+        <v>0.046774</v>
       </c>
       <c r="O20">
-        <v>0.4658568668791965</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P20">
-        <v>0.4658568668791965</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q20">
-        <v>35.72555106066221</v>
+        <v>0.007037397761333333</v>
       </c>
       <c r="R20">
-        <v>321.52995954596</v>
+        <v>0.063336579852</v>
       </c>
       <c r="S20">
-        <v>0.01726668417368149</v>
+        <v>3.403988633087649E-06</v>
       </c>
       <c r="T20">
-        <v>0.01726668417368149</v>
+        <v>3.403988633087649E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,356 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.03711166666666</v>
+        <v>0.451366</v>
       </c>
       <c r="H21">
-        <v>51.111335</v>
+        <v>1.354098</v>
       </c>
       <c r="I21">
-        <v>0.03706435474344739</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J21">
-        <v>0.03706435474344739</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.003305333333333333</v>
+        <v>1.654403</v>
       </c>
       <c r="N21">
-        <v>0.009915999999999999</v>
+        <v>4.963209</v>
       </c>
       <c r="O21">
-        <v>0.0007343190557053872</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P21">
-        <v>0.0007343190557053872</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q21">
-        <v>0.05631333309555555</v>
+        <v>0.746741264498</v>
       </c>
       <c r="R21">
-        <v>0.50681999786</v>
+        <v>6.720671380482</v>
       </c>
       <c r="S21">
-        <v>2.721706197553778E-05</v>
+        <v>0.0003611986791730089</v>
       </c>
       <c r="T21">
-        <v>2.721706197553778E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.425022</v>
-      </c>
-      <c r="H22">
-        <v>1.275066</v>
-      </c>
-      <c r="I22">
-        <v>0.0009246383125251667</v>
-      </c>
-      <c r="J22">
-        <v>0.0009246383125251667</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.1448673333333333</v>
-      </c>
-      <c r="N22">
-        <v>0.434602</v>
-      </c>
-      <c r="O22">
-        <v>0.03218399861311745</v>
-      </c>
-      <c r="P22">
-        <v>0.03218399861311746</v>
-      </c>
-      <c r="Q22">
-        <v>0.061571803748</v>
-      </c>
-      <c r="R22">
-        <v>0.554146233732</v>
-      </c>
-      <c r="S22">
-        <v>2.975855816794523E-05</v>
-      </c>
-      <c r="T22">
-        <v>2.975855816794523E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.425022</v>
-      </c>
-      <c r="H23">
-        <v>1.275066</v>
-      </c>
-      <c r="I23">
-        <v>0.0009246383125251667</v>
-      </c>
-      <c r="J23">
-        <v>0.0009246383125251667</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>2.253188666666667</v>
-      </c>
-      <c r="N23">
-        <v>6.759566</v>
-      </c>
-      <c r="O23">
-        <v>0.5005726222366118</v>
-      </c>
-      <c r="P23">
-        <v>0.5005726222366118</v>
-      </c>
-      <c r="Q23">
-        <v>0.9576547534840002</v>
-      </c>
-      <c r="R23">
-        <v>8.618892781356001</v>
-      </c>
-      <c r="S23">
-        <v>0.0004628486247211585</v>
-      </c>
-      <c r="T23">
-        <v>0.0004628486247211585</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.425022</v>
-      </c>
-      <c r="H24">
-        <v>1.275066</v>
-      </c>
-      <c r="I24">
-        <v>0.0009246383125251667</v>
-      </c>
-      <c r="J24">
-        <v>0.0009246383125251667</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.002935666666666666</v>
-      </c>
-      <c r="N24">
-        <v>0.008806999999999999</v>
-      </c>
-      <c r="O24">
-        <v>0.0006521932153688326</v>
-      </c>
-      <c r="P24">
-        <v>0.0006521932153688327</v>
-      </c>
-      <c r="Q24">
-        <v>0.001247722918</v>
-      </c>
-      <c r="R24">
-        <v>0.011229506262</v>
-      </c>
-      <c r="S24">
-        <v>6.03042834099E-07</v>
-      </c>
-      <c r="T24">
-        <v>6.030428340990001E-07</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.425022</v>
-      </c>
-      <c r="H25">
-        <v>1.275066</v>
-      </c>
-      <c r="I25">
-        <v>0.0009246383125251667</v>
-      </c>
-      <c r="J25">
-        <v>0.0009246383125251667</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.096925333333333</v>
-      </c>
-      <c r="N25">
-        <v>6.290775999999999</v>
-      </c>
-      <c r="O25">
-        <v>0.4658568668791965</v>
-      </c>
-      <c r="P25">
-        <v>0.4658568668791965</v>
-      </c>
-      <c r="Q25">
-        <v>0.891239399024</v>
-      </c>
-      <c r="R25">
-        <v>8.021154591216</v>
-      </c>
-      <c r="S25">
-        <v>0.0004307491072694415</v>
-      </c>
-      <c r="T25">
-        <v>0.0004307491072694415</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.425022</v>
-      </c>
-      <c r="H26">
-        <v>1.275066</v>
-      </c>
-      <c r="I26">
-        <v>0.0009246383125251667</v>
-      </c>
-      <c r="J26">
-        <v>0.0009246383125251667</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.003305333333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.009915999999999999</v>
-      </c>
-      <c r="O26">
-        <v>0.0007343190557053872</v>
-      </c>
-      <c r="P26">
-        <v>0.0007343190557053872</v>
-      </c>
-      <c r="Q26">
-        <v>0.001404839384</v>
-      </c>
-      <c r="R26">
-        <v>0.012643554456</v>
-      </c>
-      <c r="S26">
-        <v>6.789795325225031E-07</v>
-      </c>
-      <c r="T26">
-        <v>6.789795325225031E-07</v>
+        <v>0.0003611986791730089</v>
       </c>
     </row>
   </sheetData>
